--- a/src/main/resources/Forms_data.xlsx
+++ b/src/main/resources/Forms_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svign\IdeaProjects\testNG_web_Automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38715AEA-7A60-4C21-8211-8D8D1031E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B566D-C279-4492-9408-C99BDF7A2B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{091BE255-D688-46F1-98AF-3965E011893B}"/>
   </bookViews>
@@ -93,18 +93,12 @@
     <t>India</t>
   </si>
   <si>
-    <t>DOB (DD-MM-YYYY)</t>
-  </si>
-  <si>
     <t>8220152806</t>
   </si>
   <si>
     <t>625005</t>
   </si>
   <si>
-    <t>07-05-1998</t>
-  </si>
-  <si>
     <t>Gokulakrishnan</t>
   </si>
   <si>
@@ -129,10 +123,16 @@
     <t>456789</t>
   </si>
   <si>
-    <t>01-06-1999</t>
-  </si>
-  <si>
     <t>India (+91)</t>
+  </si>
+  <si>
+    <t>DOB (DDMMYYYY)</t>
+  </si>
+  <si>
+    <t>07051998</t>
+  </si>
+  <si>
+    <t>06011999</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA558CD8-6D95-435F-9543-A72ED77B7DCB}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -589,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -604,13 +604,13 @@
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>11</v>
@@ -618,37 +618,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>11</v>
